--- a/data/trans_camb/P16A07-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Dificultad-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A07-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A07-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.498716591317605</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.238475363678988</v>
+        <v>3.23847536367899</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.58666288760825</v>
@@ -664,7 +664,7 @@
         <v>-1.111172987732098</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.431029615603822</v>
+        <v>2.43102961560382</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.797726088142682</v>
+        <v>-2.822937682335746</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.848941492443324</v>
+        <v>-3.699602406708735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2802483701466667</v>
+        <v>0.1740689339281242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3602519657202931</v>
+        <v>-0.3032065662209401</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.362646572338666</v>
+        <v>-2.629954806416032</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.5788231588013321</v>
+        <v>-0.7140711535623675</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.350853803201335</v>
+        <v>-1.378276282769313</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.052580675534117</v>
+        <v>-2.901779364053281</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3304481207567415</v>
+        <v>0.2242845188999578</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.698693802804043</v>
+        <v>1.555775107205856</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5158648041679854</v>
+        <v>0.4329374231386015</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.287306437560115</v>
+        <v>6.273246494429217</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.456615998049422</v>
+        <v>5.632614753908065</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.970451121713793</v>
+        <v>3.090958004901133</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.404348711030096</v>
+        <v>5.143975741697412</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.667608931668544</v>
+        <v>2.431760201215342</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6348366506213632</v>
+        <v>0.5935056906895344</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.54694802741774</v>
+        <v>4.435104610896208</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2931851325898528</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6335239326699263</v>
+        <v>0.6335239326699267</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2454666871215232</v>
@@ -769,7 +769,7 @@
         <v>-0.1317519713646244</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2882475976628138</v>
+        <v>0.2882475976628136</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4348981485286255</v>
+        <v>-0.4366386544406827</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5664103271606241</v>
+        <v>-0.5753708288749418</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.03294288988381873</v>
+        <v>0.02081692994131185</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02681116247065643</v>
+        <v>-0.01944274235186469</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2029532920088071</v>
+        <v>-0.2162603911067572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04099128319639789</v>
+        <v>-0.06160180397227676</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1477643477612946</v>
+        <v>-0.1512579598007849</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3178185025525987</v>
+        <v>-0.3093531632332183</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.02787727946999346</v>
+        <v>0.01690426612068989</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4243293624086292</v>
+        <v>0.4404560216928833</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1561711177914806</v>
+        <v>0.1063187030806316</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.537571549992472</v>
+        <v>1.657548668059302</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6033141030365072</v>
+        <v>0.6162044676844221</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3227060039516248</v>
+        <v>0.3530435395602504</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6135344000776777</v>
+        <v>0.5798603305411539</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3570300378779792</v>
+        <v>0.3268296358901378</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.08419506532827051</v>
+        <v>0.08165012441176329</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6072350266775743</v>
+        <v>0.5901017367511817</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.2373646344322182</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.531610379398799</v>
+        <v>1.531610379398798</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.487809814509775</v>
@@ -878,7 +878,7 @@
         <v>0.3094340774874353</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.430476227423118</v>
+        <v>2.430476227423117</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2735237610204122</v>
+        <v>-0.1839051704679398</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8849963682038487</v>
+        <v>-1.076304942865098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.252828143867369</v>
+        <v>0.3011485031371581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.525508937814322</v>
+        <v>-0.5954664382312261</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.748276155187924</v>
+        <v>-1.855736904060485</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9748376952502698</v>
+        <v>1.033893994061787</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1889805654424433</v>
+        <v>0.1508395972427666</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.8346123528955538</v>
+        <v>-0.990237667890188</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.178438719598561</v>
+        <v>1.339284086261233</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.476122051108022</v>
+        <v>2.65982132869991</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.499521208267687</v>
+        <v>1.390575168128398</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.011657533640409</v>
+        <v>2.968707394066635</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.671103855089138</v>
+        <v>3.673354990441422</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.261919780603955</v>
+        <v>2.168806016653461</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.735447278803799</v>
+        <v>4.756793230409763</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.704707505669307</v>
+        <v>2.750455038234822</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.626547894651428</v>
+        <v>1.457879895313972</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.633516576789392</v>
+        <v>3.64525707118288</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1403476804018516</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.9056023216862354</v>
+        <v>0.905602321686235</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2743381264911196</v>
@@ -983,7 +983,7 @@
         <v>0.08742364231041301</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6866764193379076</v>
+        <v>0.6866764193379074</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1576096170261228</v>
+        <v>-0.1248510971403966</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4200984066134658</v>
+        <v>-0.4681459930548751</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.05194924143233735</v>
+        <v>0.06201789800670238</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08644000298516875</v>
+        <v>-0.09198616271201517</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2783931555823487</v>
+        <v>-0.2970917247222182</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1446647156593402</v>
+        <v>0.1537254218863036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04166449338711251</v>
+        <v>0.0146272170146028</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.206043530873029</v>
+        <v>-0.2418368302907274</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2712442972206459</v>
+        <v>0.3127923946014236</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.003263341009133</v>
+        <v>2.218762332441546</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.320237234153832</v>
+        <v>1.169536890781993</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.669077312736385</v>
+        <v>2.34851431371702</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8290048565362931</v>
+        <v>0.8353882412904295</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5146405849962935</v>
+        <v>0.5030336499162021</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.091534216384932</v>
+        <v>1.104504711930143</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9191016351763867</v>
+        <v>0.8987735034331732</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5684010425401131</v>
+        <v>0.4767812223530566</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.214780926365406</v>
+        <v>1.242685247654568</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.3802093492508055</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.169740624670805</v>
+        <v>1.169740624670804</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.776944388708029</v>
@@ -1083,7 +1083,7 @@
         <v>0.7560878034720518</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.339793825700079</v>
+        <v>1.339793825700081</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.846176769063889</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6000900875170595</v>
+        <v>0.5598239714672456</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4866549886563464</v>
+        <v>-0.5539968866086946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2618293090174714</v>
+        <v>0.2254426447200873</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.2709034830989382</v>
+        <v>-0.2293849294460267</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.577152629966804</v>
+        <v>-1.353322553157089</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.4438703810930508</v>
+        <v>-0.4455064922044359</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6412973888871927</v>
+        <v>0.6968901771031287</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.4754985726247867</v>
+        <v>-0.6043580994155757</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4508980734018064</v>
+        <v>0.4179924914680677</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.162445925155769</v>
+        <v>3.20627766134775</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.683652025595049</v>
+        <v>1.501349217474779</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.213251606049809</v>
+        <v>2.358750680735635</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.102167362947658</v>
+        <v>4.081187772561648</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.033674981472131</v>
+        <v>3.040211611256758</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.129723888314593</v>
+        <v>3.131631715975312</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.286919736382742</v>
+        <v>3.140187753600561</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.02319941646981</v>
+        <v>1.89395833678542</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.542053381098103</v>
+        <v>2.429503079372322</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3657397785286632</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.125223979489437</v>
+        <v>1.125223979489436</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3902990489773276</v>
@@ -1188,7 +1188,7 @@
         <v>0.1660717985963862</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2942805972541653</v>
+        <v>0.2942805972541656</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6860642144179008</v>
@@ -1197,7 +1197,7 @@
         <v>0.2263471489306626</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5056544676784758</v>
+        <v>0.505654467678476</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3602142544946629</v>
+        <v>0.3632211904582733</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3845758977880074</v>
+        <v>-0.4274295344584595</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1395069277918678</v>
+        <v>0.09900928869870521</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05945960528608404</v>
+        <v>-0.04962281214635284</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2948466184067036</v>
+        <v>-0.2560388362079064</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.07920360939888103</v>
+        <v>-0.08488693505786284</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1879886482394798</v>
+        <v>0.2111945223128253</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1677237637109351</v>
+        <v>-0.2009550928749212</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1355259825573769</v>
+        <v>0.1030716687254689</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>5.02670935757302</v>
+        <v>5.747934681090126</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.604925035321481</v>
+        <v>2.499421328182336</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.208531460579418</v>
+        <v>4.030995577154759</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.117369044830574</v>
+        <v>1.097142490280581</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8136819677651767</v>
+        <v>0.8518224201019744</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8871566564096447</v>
+        <v>0.8588588169511</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.387594182326389</v>
+        <v>1.415310281381934</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.921787899262139</v>
+        <v>0.8163898601464039</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.184298516390526</v>
+        <v>1.089631553597951</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-0.3928039659272992</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.479286251937893</v>
+        <v>1.479286251937892</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.02811170245075184</v>
@@ -1306,7 +1306,7 @@
         <v>-0.6440029078773067</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.9302015521266984</v>
+        <v>0.9302015521266978</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.141709914673601</v>
+        <v>-1.994281901777743</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.983629115949655</v>
+        <v>-2.666097925878815</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.413455464043035</v>
+        <v>-1.52041810075089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.746352633610229</v>
+        <v>-2.744893028345297</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.706789775445121</v>
+        <v>-3.509353836506969</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.597296691186872</v>
+        <v>-1.3684227524043</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.700812778296055</v>
+        <v>-1.61908283388553</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.211757737156748</v>
+        <v>-2.207506463714809</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.5627872115531471</v>
+        <v>-0.707098667621092</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.365035632710919</v>
+        <v>1.333958591936902</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2155238284335015</v>
+        <v>0.3264676446444125</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.710575195455121</v>
+        <v>1.593702731572914</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.910673341833424</v>
+        <v>3.11755860719269</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.999662136200116</v>
+        <v>2.269717064145862</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.854025638236216</v>
+        <v>3.565742711391185</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.613137964265116</v>
+        <v>1.496354192712471</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8116662332694196</v>
+        <v>0.8112929017194002</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.225832013855147</v>
+        <v>2.172484025475363</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.1026892716370823</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3867242719804077</v>
+        <v>0.3867242719804075</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.01020320212841015</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2337422236119438</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3376186295773674</v>
+        <v>0.3376186295773672</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7540042878219474</v>
+        <v>-0.762507349558033</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9161123655063489</v>
+        <v>-0.9124847786664593</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.494068974442008</v>
+        <v>-0.5233339720391426</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5229566845216234</v>
+        <v>-0.51269896552162</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.612762141858728</v>
+        <v>-0.6191939226068859</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.25826362842164</v>
+        <v>-0.223730721057223</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4761418258379964</v>
+        <v>-0.461069969107727</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6012711209776165</v>
+        <v>-0.6001935322071762</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1536459040621505</v>
+        <v>-0.1946123161797365</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.628781132576244</v>
+        <v>1.193797752851701</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3586126983358666</v>
+        <v>0.5066842555251254</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.599367570903127</v>
+        <v>1.417585826485156</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.297735010087964</v>
+        <v>1.415580680651584</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9136947376119006</v>
+        <v>1.101469628812879</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.920891746964489</v>
+        <v>1.631778772842214</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8784142418025683</v>
+        <v>0.7665079450121328</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4800163293276329</v>
+        <v>0.4500760571952693</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.227924199556065</v>
+        <v>1.165564737896927</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2570348047601659</v>
+        <v>0.2930162028033216</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6391746509929972</v>
+        <v>-0.7196439996309758</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3471852914334754</v>
+        <v>0.448156453331716</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8116369719151275</v>
+        <v>0.7270113582616597</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5664842832867745</v>
+        <v>-0.709323528496503</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1515439409203267</v>
+        <v>0.1311946905447693</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7358860420292044</v>
+        <v>0.7109100750524274</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.2948086437933699</v>
+        <v>-0.306395993129035</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5673659622612545</v>
+        <v>0.5819102579014614</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.907475707104916</v>
+        <v>1.909349758608317</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7911815079891148</v>
+        <v>0.7261769812151807</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.951600811723811</v>
+        <v>1.995579463773209</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.280130392092798</v>
+        <v>3.184976131794746</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.795880339646481</v>
+        <v>1.818631362956698</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.408812990066683</v>
+        <v>2.422632101895696</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.281418556989474</v>
+        <v>2.333437329140001</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.169919687989959</v>
+        <v>1.069778244834671</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.941762058953163</v>
+        <v>2.00183101567952</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.08758109921296467</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2974692149509436</v>
+        <v>0.2974692149509437</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.09191191102314265</v>
+        <v>0.09310990717160222</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2605645047565486</v>
+        <v>-0.2899018393926861</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1333544779259193</v>
+        <v>0.1589310701095806</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1174757555517498</v>
+        <v>0.1051208686632862</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.080693452761104</v>
+        <v>-0.1014308143372546</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02111578554902018</v>
+        <v>0.01656088445430381</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1614907722810843</v>
+        <v>0.1515411889691325</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.0644349787986408</v>
+        <v>-0.06653597552500327</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1203485025681379</v>
+        <v>0.1221565728208152</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.105099997726916</v>
+        <v>1.067456868600086</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4436904612420584</v>
+        <v>0.4316155709273423</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.079438688382368</v>
+        <v>1.110560633490392</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5616911087964439</v>
+        <v>0.5440059751608608</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3081804638980569</v>
+        <v>0.3024477894983789</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4150462951598769</v>
+        <v>0.4211561895509155</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5805274054903516</v>
+        <v>0.5782633748276312</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3007804314256697</v>
+        <v>0.2710551975716663</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4925430981039264</v>
+        <v>0.5066743184680926</v>
       </c>
     </row>
     <row r="34">
